--- a/biology/Biologie cellulaire et moléculaire/American_Journal_of_Human_Genetics/American_Journal_of_Human_Genetics.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/American_Journal_of_Human_Genetics/American_Journal_of_Human_Genetics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">American Journal of Human Genetics est une revue scientifique mensuelle évaluée par des pairs dans le domaine de la génétique humaine. Elle a été créée en 1948 par l'American Society of Human Genetics (en) (la Société américaine de génétique humaine) et couvre tous les aspects de l'hérédité chez l'homme, y compris l'application de la génétique en médecine de même que les politiques publiques, ainsi que dans les domaines connexes de la biologie moléculaire et cellulaire[1]. Selon le Journal Citation Reports, en 2012, le journal a eu un facteur d'impact de 11.202[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">American Journal of Human Genetics est une revue scientifique mensuelle évaluée par des pairs dans le domaine de la génétique humaine. Elle a été créée en 1948 par l'American Society of Human Genetics (en) (la Société américaine de génétique humaine) et couvre tous les aspects de l'hérédité chez l'homme, y compris l'application de la génétique en médecine de même que les politiques publiques, ainsi que dans les domaines connexes de la biologie moléculaire et cellulaire. Selon le Journal Citation Reports, en 2012, le journal a eu un facteur d'impact de 11.202.
 </t>
         </is>
       </c>
